--- a/c++_stdlib.xlsx
+++ b/c++_stdlib.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="198">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,7 +238,583 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>push_after</t>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splice_after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子类型库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期和时间工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验性C++特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件系统库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++标准库头文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地化库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态内存管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具名要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std符号索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程支持库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_or_assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try_emplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equal_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remvoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multimap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equal_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,382 +822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>splice_after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子类型库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期和时间工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概念库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验性C++特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件系统库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++标准库头文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入/输出库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代器库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有用的资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地化库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态内存管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具名要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预处理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正则表达式库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std符号索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程支持库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert_or_assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_hint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>try_emplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equal_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lower_bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upper_bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>val_comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>push_front</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -631,186 +831,6 @@
   </si>
   <si>
     <t>pop_front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>splice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remvoe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multimap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_hint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_hint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equal_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lower_bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upper_bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contains</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,138 +1209,138 @@
   <sheetData>
     <row r="1" spans="4:7">
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="4:7">
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="4:7">
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="4:7">
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="4:7">
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="4:7">
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="4:7">
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="4:7">
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1580,9 +1600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1607,16 +1627,16 @@
         <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1630,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1647,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1662,10 +1682,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1706,16 +1726,16 @@
         <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1730,16 +1750,16 @@
         <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1754,16 +1774,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1778,16 +1798,16 @@
         <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1802,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1826,16 +1846,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1847,16 +1867,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1868,16 +1888,16 @@
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1894,16 +1914,16 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1918,16 +1938,16 @@
         <v>21</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1939,16 +1959,16 @@
         <v>21</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1968,16 +1988,16 @@
         <v>33</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1989,16 +2009,16 @@
         <v>48</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2007,19 +2027,19 @@
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2028,19 +2048,19 @@
         <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2049,19 +2069,19 @@
         <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2069,20 +2089,17 @@
       <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2090,20 +2107,17 @@
       <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2112,19 +2126,19 @@
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2132,14 +2146,11 @@
       <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2148,13 +2159,13 @@
         <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2162,8 +2173,11 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2171,8 +2185,11 @@
       <c r="C36" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="E36" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2183,10 +2200,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2195,55 +2212,55 @@
         <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="5"/>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5"/>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5"/>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5"/>
       <c r="D43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="5"/>
       <c r="D44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2257,13 +2274,13 @@
         <v>24</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2272,31 +2289,31 @@
         <v>24</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="5"/>
       <c r="D48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2315,110 +2332,110 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="5"/>
       <c r="F55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="5"/>
       <c r="F56" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="5"/>
       <c r="F57" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="5"/>
       <c r="F58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="5"/>
       <c r="F59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="5"/>
       <c r="F62" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="G65" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/c++_stdlib.xlsx
+++ b/c++_stdlib.xlsx
@@ -530,307 +530,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remvoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multimap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equal_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase_if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>front</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push_front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop_front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>splice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remvoe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multimap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_hint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_hint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equal_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lower_bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upper_bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::erase_if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert_after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push_front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emplace_front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop_front</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1600,9 +1600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E23" sqref="E23"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1633,10 +1633,10 @@
         <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1662,12 +1662,6 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>85</v>
@@ -1681,9 +1675,6 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="F6" s="1" t="s">
         <v>86</v>
       </c>
@@ -1705,12 +1696,21 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
@@ -1726,16 +1726,16 @@
         <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1750,16 +1750,16 @@
         <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1774,16 +1774,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1798,16 +1798,16 @@
         <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1822,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1846,16 +1846,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1867,16 +1867,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1888,16 +1888,16 @@
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1914,16 +1914,16 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1938,16 +1938,16 @@
         <v>21</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1959,16 +1959,16 @@
         <v>21</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1988,16 +1988,16 @@
         <v>33</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2009,16 +2009,16 @@
         <v>48</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2027,19 +2027,19 @@
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2048,19 +2048,19 @@
         <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2069,19 +2069,19 @@
         <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2090,16 +2090,16 @@
         <v>44</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2108,16 +2108,16 @@
         <v>35</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2126,19 +2126,19 @@
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2147,7 +2147,7 @@
         <v>37</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>106</v>
@@ -2159,10 +2159,10 @@
         <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>107</v>
@@ -2174,10 +2174,10 @@
         <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2186,10 +2186,10 @@
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2203,7 +2203,7 @@
         <v>49</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2215,7 +2215,7 @@
         <v>50</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2224,7 +2224,7 @@
         <v>51</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2233,7 +2233,7 @@
         <v>52</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2242,7 +2242,7 @@
         <v>53</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2251,7 +2251,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2260,7 +2260,7 @@
         <v>55</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2274,13 +2274,13 @@
         <v>24</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2292,16 +2292,16 @@
         <v>56</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2310,7 +2310,7 @@
         <v>57</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>119</v>
@@ -2338,10 +2338,10 @@
         <v>109</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2350,10 +2350,10 @@
         <v>108</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2362,10 +2362,10 @@
         <v>110</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2374,10 +2374,10 @@
         <v>111</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2386,10 +2386,10 @@
         <v>112</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2398,10 +2398,10 @@
         <v>113</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2420,22 +2420,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="G65" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/c++_stdlib.xlsx
+++ b/c++_stdlib.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="247">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,10 +746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观察器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key_comp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,6 +827,199 @@
   </si>
   <si>
     <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority_queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::uses_allocator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbegin</t>
+  </si>
+  <si>
+    <t>cbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cend</t>
+  </si>
+  <si>
+    <t>cend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin</t>
+  </si>
+  <si>
+    <t>rbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crbegin</t>
+  </si>
+  <si>
+    <t>crbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crend</t>
+  </si>
+  <si>
+    <t>crend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::user_allocator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace_hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equal_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::erase_if</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,6 +1096,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1598,11 +1793,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1613,10 +1808,12 @@
     <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1636,10 +1833,19 @@
         <v>155</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1653,8 +1859,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1667,8 +1873,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1679,17 +1885,20 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
+      <c r="J7" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1697,730 +1906,902 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
+      <c r="J8" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1">
+      <c r="A10" s="7"/>
+      <c r="I10" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="J16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="J17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
+      <c r="J19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1" t="s">
+      <c r="K22" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5"/>
-      <c r="C23" s="1" t="s">
+      <c r="I23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7"/>
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="5"/>
-      <c r="C26" s="1" t="s">
+      <c r="K26" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7"/>
+      <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="5"/>
-      <c r="C27" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7"/>
+      <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7"/>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7"/>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="7"/>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="5"/>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7"/>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7"/>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5"/>
-      <c r="C29" s="1" t="s">
+      <c r="E33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7"/>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7"/>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7"/>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7"/>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7"/>
+      <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="5"/>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="5"/>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5"/>
-      <c r="C32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="5"/>
-      <c r="C33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="5"/>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="5"/>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="5"/>
-      <c r="C36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="5"/>
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="7"/>
+      <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="5"/>
-      <c r="D41" s="1" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="7"/>
+      <c r="D42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5"/>
-      <c r="D42" s="1" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="7"/>
+      <c r="D43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5"/>
-      <c r="D43" s="1" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" s="7"/>
+      <c r="D44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5"/>
-      <c r="D44" s="1" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="7"/>
+      <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="5"/>
       <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7"/>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="7"/>
+      <c r="D49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="5" t="s">
+      <c r="G49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="5" customFormat="1">
+      <c r="A50" s="7"/>
+      <c r="I50" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="5"/>
-      <c r="B52" s="1" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="7"/>
+      <c r="B54" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="5" t="s">
+    <row r="56" spans="1:11">
+      <c r="A56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="7"/>
+      <c r="F57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="7"/>
+      <c r="F58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="5"/>
-      <c r="F55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="5"/>
-      <c r="F56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="5"/>
-      <c r="F57" s="1" t="s">
+      <c r="K58" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="7"/>
+      <c r="F59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="5"/>
-      <c r="F58" s="1" t="s">
+      <c r="K59" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="7"/>
+      <c r="F60" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="5"/>
-      <c r="F59" s="1" t="s">
+      <c r="K60" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="7"/>
+      <c r="F61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="5" t="s">
+      <c r="K61" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="5"/>
-      <c r="F62" s="1" t="s">
+      <c r="G63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="7"/>
+      <c r="F64" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>177</v>
@@ -2428,28 +2809,21 @@
       <c r="H64" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="5"/>
-      <c r="G65" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>178</v>
+      <c r="K64" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A46:A48"/>
+  <mergeCells count="9">
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A56:A61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
